--- a/files/Annex-V.xlsx
+++ b/files/Annex-V.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>Annex - V</t>
   </si>
@@ -183,7 +183,7 @@
 (22)</t>
   </si>
   <si>
-    <t>Capital  Component</t>
+    <t>Capital Component</t>
   </si>
   <si>
     <t>199
@@ -232,9 +232,6 @@
   <si>
     <t>17
 (17)</t>
-  </si>
-  <si>
-    <t>Sub Total (Capital  Component)</t>
   </si>
   <si>
     <t>Physical Contingency</t>
@@ -660,7 +657,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AE20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
@@ -1365,124 +1362,107 @@
       </c>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5" t="s"/>
-      <c r="E17" s="5" t="s"/>
-      <c r="F17" s="5" t="s"/>
-      <c r="G17" s="5" t="s"/>
-      <c r="H17" s="5" t="s"/>
-      <c r="I17" s="5" t="s"/>
-      <c r="J17" s="5" t="s"/>
-      <c r="K17" s="5" t="s"/>
-      <c r="L17" s="5" t="s"/>
-      <c r="M17" s="5" t="s"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>519</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="K18" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>519</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="K19" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M19" s="4" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:31">
-      <c r="A20" s="4" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>391.74</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:31">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>391.74</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>88.8</v>
+      </c>
+      <c r="K20" s="4">
+        <v>70.6</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>88.8</v>
-      </c>
-      <c r="K21" s="4">
-        <v>70.6</v>
-      </c>
-      <c r="L21" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1507,9 +1487,8 @@
     <mergeCell ref="A10:M10"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A19:M19"/>
     <mergeCell ref="N6:S6"/>
     <mergeCell ref="N7:N9"/>
     <mergeCell ref="O7:Q7"/>

--- a/files/Annex-V.xlsx
+++ b/files/Annex-V.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>Annex - V</t>
   </si>
@@ -94,12 +94,16 @@
     <t>AS</t>
   </si>
   <si>
-    <t>3203
-(7900)</t>
-  </si>
-  <si>
-    <t>29
-(27)</t>
+    <t>3006
+(7883)</t>
+  </si>
+  <si>
+    <t>83
+(10)</t>
+  </si>
+  <si>
+    <t>11
+(9)</t>
   </si>
   <si>
     <t>2999
@@ -123,6 +127,10 @@
   </si>
   <si>
     <t>3
+(2)</t>
+  </si>
+  <si>
+    <t>3
 (0)</t>
   </si>
   <si>
@@ -132,106 +140,110 @@
     <t>LS</t>
   </si>
   <si>
-    <t>209
-(643)</t>
+    <t>10
+(12)</t>
+  </si>
+  <si>
+    <t>15
+(13)</t>
+  </si>
+  <si>
+    <t>14
+(9)</t>
+  </si>
+  <si>
+    <t>5
+(5)</t>
+  </si>
+  <si>
+    <t>2
+(3)</t>
+  </si>
+  <si>
+    <t>7
+(8)</t>
+  </si>
+  <si>
+    <t>9
+(4)</t>
+  </si>
+  <si>
+    <t>3
+(4)</t>
+  </si>
+  <si>
+    <t>0
+(0)</t>
+  </si>
+  <si>
+    <t>Sub Total (Revenue Component)</t>
+  </si>
+  <si>
+    <t>101
+(11)</t>
+  </si>
+  <si>
+    <t>11
+(11)</t>
+  </si>
+  <si>
+    <t>201
+(22)</t>
+  </si>
+  <si>
+    <t>22
+(22)</t>
+  </si>
+  <si>
+    <t>Capital Component</t>
+  </si>
+  <si>
+    <t>199
+(78)</t>
+  </si>
+  <si>
+    <t>1
+(1)</t>
+  </si>
+  <si>
+    <t>6
+(6)</t>
+  </si>
+  <si>
+    <t>Investment for Recapitalization of Bank</t>
+  </si>
+  <si>
+    <t>Acre</t>
+  </si>
+  <si>
+    <t>305
+(33)</t>
+  </si>
+  <si>
+    <t>36
+(33)</t>
+  </si>
+  <si>
+    <t>33
+(33)</t>
+  </si>
+  <si>
+    <t>City Corporations</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>208
+(84)</t>
   </si>
   <si>
     <t>10
 (7)</t>
   </si>
   <si>
-    <t>67
+    <t>7
 (7)</t>
-  </si>
-  <si>
-    <t>5
-(5)</t>
-  </si>
-  <si>
-    <t>2
-(3)</t>
-  </si>
-  <si>
-    <t>7
-(8)</t>
-  </si>
-  <si>
-    <t>9
-(4)</t>
-  </si>
-  <si>
-    <t>0
-(0)</t>
-  </si>
-  <si>
-    <t>Sub Total (Revenue Component)</t>
-  </si>
-  <si>
-    <t>101
-(11)</t>
-  </si>
-  <si>
-    <t>11
-(11)</t>
-  </si>
-  <si>
-    <t>201
-(22)</t>
-  </si>
-  <si>
-    <t>22
-(22)</t>
-  </si>
-  <si>
-    <t>Capital Component</t>
-  </si>
-  <si>
-    <t>199
-(78)</t>
-  </si>
-  <si>
-    <t>1
-(1)</t>
-  </si>
-  <si>
-    <t>6
-(6)</t>
-  </si>
-  <si>
-    <t>Investment for Recapitalization of Bank</t>
-  </si>
-  <si>
-    <t>Acre</t>
-  </si>
-  <si>
-    <t>10
-(8)</t>
-  </si>
-  <si>
-    <t>15
-(13)</t>
-  </si>
-  <si>
-    <t>14
-(9)</t>
-  </si>
-  <si>
-    <t>City Corporations</t>
-  </si>
-  <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>110
-(17)</t>
-  </si>
-  <si>
-    <t>20
-(17)</t>
-  </si>
-  <si>
-    <t>17
-(17)</t>
   </si>
   <si>
     <t>Physical Contingency</t>
@@ -961,34 +973,34 @@
         <v>23</v>
       </c>
       <c r="E11" s="4">
-        <v>5096</v>
+        <v>5000</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
       </c>
       <c r="G11" s="4">
-        <v>10192</v>
+        <v>10000</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I11" s="4">
-        <v>6809</v>
+        <v>6819</v>
       </c>
       <c r="J11" s="4">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="K11" s="4">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O11">
         <v>6787</v>
@@ -1000,13 +1012,13 @@
         <v>4</v>
       </c>
       <c r="R11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U11">
         <v>24</v>
@@ -1018,16 +1030,16 @@
         <v>6</v>
       </c>
       <c r="X11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB11">
         <v>33</v>
@@ -1036,10 +1048,10 @@
         <v>0</v>
       </c>
       <c r="AD11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AE11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1050,40 +1062,40 @@
         <v>4916</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4">
-        <v>219.91</v>
+        <v>1.6</v>
       </c>
       <c r="F12" s="4">
         <v>45</v>
       </c>
       <c r="G12" s="4">
-        <v>9896</v>
+        <v>72</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I12" s="4">
-        <v>8892</v>
+        <v>17</v>
       </c>
       <c r="J12" s="4">
-        <v>672</v>
+        <v>13</v>
       </c>
       <c r="K12" s="4">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O12">
         <v>5</v>
@@ -1095,13 +1107,13 @@
         <v>5</v>
       </c>
       <c r="R12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U12">
         <v>4</v>
@@ -1113,16 +1125,16 @@
         <v>6</v>
       </c>
       <c r="X12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z12" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB12">
         <v>3</v>
@@ -1131,15 +1143,15 @@
         <v>0</v>
       </c>
       <c r="AD12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AE12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1154,7 +1166,7 @@
       <c r="L13" s="5" t="s"/>
       <c r="M13" s="5" t="s"/>
       <c r="N13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="O13">
         <v>101</v>
@@ -1166,13 +1178,13 @@
         <v>11</v>
       </c>
       <c r="R13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="U13">
         <v>22</v>
@@ -1184,13 +1196,13 @@
         <v>22</v>
       </c>
       <c r="X13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Y13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Z13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -1202,15 +1214,15 @@
         <v>0</v>
       </c>
       <c r="AD13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AE13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1225,7 +1237,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O14">
         <v>8888</v>
@@ -1237,13 +1249,13 @@
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U14">
         <v>6</v>
@@ -1255,13 +1267,13 @@
         <v>6</v>
       </c>
       <c r="X14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Y14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Z14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -1273,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="AD14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AE14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -1287,10 +1299,10 @@
         <v>7113</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -1299,25 +1311,25 @@
         <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>69</v>
+        <v>563</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I15" s="4">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="J15" s="4">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="K15" s="4">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -1328,10 +1340,10 @@
         <v>7231</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -1340,30 +1352,30 @@
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <v>288</v>
+        <v>9798</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I16" s="4">
-        <v>107</v>
+        <v>8894</v>
       </c>
       <c r="J16" s="4">
-        <v>17</v>
+        <v>672</v>
       </c>
       <c r="K16" s="4">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1382,7 +1394,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4">
@@ -1395,7 +1407,7 @@
         <v>519</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I18" s="4">
         <v>0</v>
@@ -1407,15 +1419,15 @@
         <v>12.5</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1434,7 +1446,7 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4">
@@ -1447,7 +1459,7 @@
         <v>391.74</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
@@ -1459,10 +1471,10 @@
         <v>70.6</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/files/Annex-V.xlsx
+++ b/files/Annex-V.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Annex - V</t>
   </si>
@@ -35,13 +35,7 @@
     <t>Total Project</t>
   </si>
   <si>
-    <t>Harun</t>
-  </si>
-  <si>
-    <t>Year 2</t>
-  </si>
-  <si>
-    <t>Year: 2014-2015</t>
+    <t>Bangladesh 2014</t>
   </si>
   <si>
     <t>Unit</t>
@@ -88,192 +82,56 @@
     <t>Revenue Component</t>
   </si>
   <si>
-    <t>Pay of Establishment</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>3006
-(7883)</t>
-  </si>
-  <si>
-    <t>83
-(10)</t>
-  </si>
-  <si>
-    <t>11
-(9)</t>
-  </si>
-  <si>
-    <t>2999
-(7878)</t>
-  </si>
-  <si>
-    <t>4
-(5)</t>
-  </si>
-  <si>
-    <t>4
+    <t>Overtime</t>
+  </si>
+  <si>
+    <t>3
 (3)</t>
   </si>
   <si>
-    <t>76
-(5)</t>
+    <t>0
+(0)</t>
+  </si>
+  <si>
+    <t>National Bond</t>
   </si>
   <si>
     <t>4
 (4)</t>
   </si>
   <si>
-    <t>3
-(2)</t>
-  </si>
-  <si>
-    <t>3
-(0)</t>
-  </si>
-  <si>
-    <t>Machineries &amp; Equipment</t>
-  </si>
-  <si>
-    <t>LS</t>
-  </si>
-  <si>
-    <t>10
-(12)</t>
-  </si>
-  <si>
-    <t>15
-(13)</t>
-  </si>
-  <si>
-    <t>14
-(9)</t>
+    <t>Sub Total (Revenue Component)</t>
+  </si>
+  <si>
+    <t>6
+(6)</t>
+  </si>
+  <si>
+    <t>Capital Component</t>
   </si>
   <si>
     <t>5
 (5)</t>
   </si>
   <si>
-    <t>2
-(3)</t>
-  </si>
-  <si>
-    <t>7
-(8)</t>
-  </si>
-  <si>
-    <t>9
-(4)</t>
-  </si>
-  <si>
-    <t>3
-(4)</t>
-  </si>
-  <si>
-    <t>0
-(0)</t>
-  </si>
-  <si>
-    <t>Sub Total (Revenue Component)</t>
-  </si>
-  <si>
-    <t>101
-(11)</t>
-  </si>
-  <si>
-    <t>11
-(11)</t>
-  </si>
-  <si>
-    <t>201
-(22)</t>
-  </si>
-  <si>
-    <t>22
-(22)</t>
-  </si>
-  <si>
-    <t>Capital Component</t>
-  </si>
-  <si>
-    <t>199
-(78)</t>
-  </si>
-  <si>
-    <t>1
-(1)</t>
-  </si>
-  <si>
-    <t>6
-(6)</t>
-  </si>
-  <si>
-    <t>Investment for Recapitalization of Bank</t>
-  </si>
-  <si>
-    <t>Acre</t>
-  </si>
-  <si>
-    <t>305
-(33)</t>
-  </si>
-  <si>
-    <t>36
-(33)</t>
-  </si>
-  <si>
-    <t>33
-(33)</t>
-  </si>
-  <si>
-    <t>City Corporations</t>
-  </si>
-  <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>208
-(84)</t>
-  </si>
-  <si>
-    <t>10
-(7)</t>
+    <t>Teaching and Learning Material</t>
+  </si>
+  <si>
+    <t>Conversion of Bank Loan into Equity</t>
+  </si>
+  <si>
+    <t>Physical Contingency</t>
+  </si>
+  <si>
+    <t>Price Contingency</t>
   </si>
   <si>
     <t>7
 (7)</t>
   </si>
   <si>
-    <t>Physical Contingency</t>
-  </si>
-  <si>
-    <t>10.4
-(8.79)</t>
-  </si>
-  <si>
-    <t>9.5
-(58.7)</t>
-  </si>
-  <si>
-    <t>465.8
-(67)</t>
-  </si>
-  <si>
-    <t>Price Contingency</t>
-  </si>
-  <si>
-    <t>108.34
-(338.78)</t>
-  </si>
-  <si>
-    <t>42.43
-(96.89)</t>
-  </si>
-  <si>
-    <t>42.9
-(48.8)</t>
+    <t>8
+(8)</t>
   </si>
 </sst>
 </file>
@@ -669,7 +527,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AE20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
@@ -690,7 +548,7 @@
     <col min="13" max="13" width="10" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,7 +565,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -724,7 +582,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:19">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -754,97 +612,53 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-    </row>
-    <row r="7" spans="1:31">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="U7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -854,46 +668,26 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-    </row>
-    <row r="9" spans="1:31">
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -903,48 +697,28 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -959,199 +733,123 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:19">
       <c r="A11" s="4">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="B11" s="4">
-        <v>4601</v>
+        <v>4805</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="4">
+        <v>5000</v>
+      </c>
+      <c r="B12" s="4">
+        <v>5010</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="4">
-        <v>5000</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4">
-        <v>10000</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>8</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="4">
-        <v>6819</v>
-      </c>
-      <c r="J11" s="4">
-        <v>79</v>
-      </c>
-      <c r="K11" s="4">
-        <v>10</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="I12" s="4">
+        <v>4</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11">
-        <v>6787</v>
-      </c>
-      <c r="P11">
-        <v>41</v>
-      </c>
-      <c r="Q11">
-        <v>4</v>
-      </c>
-      <c r="R11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T11" t="s">
-        <v>29</v>
-      </c>
-      <c r="U11">
-        <v>24</v>
-      </c>
-      <c r="V11">
-        <v>5</v>
-      </c>
-      <c r="W11">
-        <v>6</v>
-      </c>
-      <c r="X11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA11">
-        <v>8</v>
-      </c>
-      <c r="AB11">
-        <v>33</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="A12" s="4">
-        <v>4900</v>
-      </c>
-      <c r="B12" s="4">
-        <v>4916</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="F12" s="4">
-        <v>45</v>
-      </c>
-      <c r="G12" s="4">
-        <v>72</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="4">
-        <v>17</v>
-      </c>
-      <c r="J12" s="4">
-        <v>13</v>
-      </c>
-      <c r="K12" s="4">
-        <v>11</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12">
-        <v>5</v>
-      </c>
-      <c r="P12">
-        <v>5</v>
-      </c>
-      <c r="Q12">
-        <v>5</v>
-      </c>
-      <c r="R12" t="s">
-        <v>39</v>
-      </c>
-      <c r="S12" t="s">
-        <v>39</v>
-      </c>
-      <c r="T12" t="s">
-        <v>40</v>
-      </c>
-      <c r="U12">
-        <v>4</v>
-      </c>
-      <c r="V12">
-        <v>5</v>
-      </c>
-      <c r="W12">
-        <v>6</v>
-      </c>
-      <c r="X12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA12">
-        <v>8</v>
-      </c>
-      <c r="AB12">
-        <v>3</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1166,63 +864,27 @@
       <c r="L13" s="5" t="s"/>
       <c r="M13" s="5" t="s"/>
       <c r="N13" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="O13">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="P13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="S13" t="s">
-        <v>47</v>
-      </c>
-      <c r="T13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U13">
-        <v>22</v>
-      </c>
-      <c r="V13">
-        <v>22</v>
-      </c>
-      <c r="W13">
-        <v>22</v>
-      </c>
-      <c r="X13" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1237,114 +899,74 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="O14">
-        <v>8888</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>666</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="S14" t="s">
-        <v>52</v>
-      </c>
-      <c r="T14" t="s">
-        <v>53</v>
-      </c>
-      <c r="U14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="4">
+        <v>6800</v>
+      </c>
+      <c r="B15" s="4">
+        <v>6820</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>12</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="4">
         <v>6</v>
       </c>
-      <c r="V14">
-        <v>6</v>
-      </c>
-      <c r="W14">
-        <v>6</v>
-      </c>
-      <c r="X14" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="A15" s="4">
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="4">
         <v>7100</v>
       </c>
-      <c r="B15" s="4">
-        <v>7113</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>563</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="4">
-        <v>123</v>
-      </c>
-      <c r="J15" s="4">
-        <v>33</v>
-      </c>
-      <c r="K15" s="4">
-        <v>33</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="A16" s="4">
-        <v>7200</v>
-      </c>
       <c r="B16" s="4">
-        <v>7231</v>
+        <v>7125</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4">
         <v>0</v>
       </c>
@@ -1352,30 +974,30 @@
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <v>9798</v>
+        <v>10</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="I16" s="4">
-        <v>8894</v>
+        <v>5</v>
       </c>
       <c r="J16" s="4">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="4" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1390,11 +1012,11 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:19">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4">
@@ -1404,30 +1026,30 @@
         <v>0</v>
       </c>
       <c r="G18" s="4">
-        <v>519</v>
+        <v>18</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="I18" s="4">
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>12.8</v>
+        <v>1</v>
       </c>
       <c r="K18" s="4">
-        <v>12.5</v>
+        <v>2</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="4" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1442,11 +1064,11 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:19">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4">
@@ -1456,25 +1078,25 @@
         <v>0</v>
       </c>
       <c r="G20" s="4">
-        <v>391.74</v>
+        <v>30</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <v>88.8</v>
+        <v>5</v>
       </c>
       <c r="K20" s="4">
-        <v>70.6</v>
+        <v>6</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1508,20 +1130,6 @@
     <mergeCell ref="S7:S9"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="T6:Y6"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="X7:X9"/>
-    <mergeCell ref="Y7:Y9"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="Z6:AE6"/>
-    <mergeCell ref="Z7:Z9"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="AD7:AD9"/>
-    <mergeCell ref="AE7:AE9"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AC9"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/Annex-V.xlsx
+++ b/files/Annex-V.xlsx
@@ -82,30 +82,30 @@
     <t>Revenue Component</t>
   </si>
   <si>
-    <t>Pay of Establishment</t>
-  </si>
-  <si>
-    <t>23
-(0)</t>
+    <t>Overtime</t>
+  </si>
+  <si>
+    <t>13
+(5)</t>
+  </si>
+  <si>
+    <t>2
+(4)</t>
+  </si>
+  <si>
+    <t>0.23
+(0.32)</t>
+  </si>
+  <si>
+    <t>National Bond</t>
+  </si>
+  <si>
+    <t>4
+(4)</t>
   </si>
   <si>
     <t>0
 (0)</t>
-  </si>
-  <si>
-    <t>Overtime</t>
-  </si>
-  <si>
-    <t>13
-(5.01)</t>
-  </si>
-  <si>
-    <t>12
-(4)</t>
-  </si>
-  <si>
-    <t>10.23
-(0.32)</t>
   </si>
   <si>
     <t>Sub Total (Revenue Component)</t>
@@ -767,10 +767,10 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="4">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="B11" s="4">
-        <v>4601</v>
+        <v>4805</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>20</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>46</v>
+        <v>15.23</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J11" s="4">
         <v>0</v>
@@ -801,13 +801,13 @@
         <v>22</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="O11" s="5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="P11" s="5">
         <v>0</v>
@@ -819,18 +819,18 @@
         <v>22</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="4">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="B12" s="4">
-        <v>4805</v>
+        <v>5010</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
@@ -840,13 +840,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>35.23</v>
+        <v>8</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I12" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" s="4">
         <v>0</v>
@@ -855,16 +855,16 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O12" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P12" s="5">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S12" s="5" t="s">
         <v>26</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>30</v>
@@ -964,10 +964,10 @@
         <v>0</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>32</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:19">
